--- a/sensores_y_actuadores/sensores.xlsx
+++ b/sensores_y_actuadores/sensores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\serwikk\Domotica\sensores_y_actuadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F38DF32-90FC-4B32-B705-56D8A85D3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401D6B1-128B-4729-A34E-7517E852F78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{0EDA9BEC-467A-4CB5-A0AD-421B493A575A}"/>
+    <workbookView xWindow="33045" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{0EDA9BEC-467A-4CB5-A0AD-421B493A575A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Columna1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>archivo</t>
   </si>
@@ -56,18 +53,12 @@
     <t>temp-</t>
   </si>
   <si>
-    <t>valor_min</t>
-  </si>
-  <si>
     <t>valor máximo</t>
   </si>
   <si>
     <t>valor mínimo</t>
   </si>
   <si>
-    <t>función</t>
-  </si>
-  <si>
     <t>humedad</t>
   </si>
   <si>
@@ -78,6 +69,30 @@
   </si>
   <si>
     <t>patrón de Ids</t>
+  </si>
+  <si>
+    <t>entradas</t>
+  </si>
+  <si>
+    <t>función generación datos</t>
+  </si>
+  <si>
+    <t>generar_valor_ciclico</t>
+  </si>
+  <si>
+    <t>generar_valor_distribucion_normal</t>
+  </si>
+  <si>
+    <t>60 (90 para cocina y baño)</t>
+  </si>
+  <si>
+    <t>luz</t>
+  </si>
+  <si>
+    <t>sensor_luz.py</t>
+  </si>
+  <si>
+    <t>lux-</t>
   </si>
 </sst>
 </file>
@@ -141,8 +156,8 @@
     <tableColumn id="3" xr3:uid="{5B96B10D-8B5D-496D-9D8C-A784457479FC}" name="patrón de Ids"/>
     <tableColumn id="4" xr3:uid="{6A2DC6D9-4332-48A6-A62D-087D3F41A617}" name="valor mínimo"/>
     <tableColumn id="5" xr3:uid="{C63DE342-0103-4DB7-B88E-A425153A5F6D}" name="valor máximo"/>
-    <tableColumn id="6" xr3:uid="{EF0A1426-F929-400D-B678-FCE8C4C40F7C}" name="función"/>
-    <tableColumn id="7" xr3:uid="{E7AF437D-AA49-4589-B9A1-334A2F954B27}" name="Columna1"/>
+    <tableColumn id="6" xr3:uid="{EF0A1426-F929-400D-B678-FCE8C4C40F7C}" name="función generación datos"/>
+    <tableColumn id="7" xr3:uid="{E7AF437D-AA49-4589-B9A1-334A2F954B27}" name="entradas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5342F615-871D-45B7-B0D2-F6493FECE971}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,56 +491,89 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
